--- a/data/income_statement/3digits/total/012_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/012_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>012-Growing of perennial crops</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>012-Growing of perennial crops</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>80285.77602</v>
+        <v>80285.77601999999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>75608.57285</v>
@@ -959,40 +865,45 @@
         <v>124641.93934</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>123097.19556</v>
+        <v>123097.66703</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>187126.54634</v>
+        <v>187390.1454</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>207438.74348</v>
+        <v>210126.11247</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>342371.91213</v>
+        <v>345842.94136</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>329435.31211</v>
+        <v>351398.85529</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>476759.11671</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>595351.03565</v>
+        <v>596002.0709500001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>767644.2065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>788681.61226</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1318845.279</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>60685.53702</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>54640.74359000001</v>
+        <v>54640.74359</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>84674.77843999999</v>
@@ -1001,31 +912,36 @@
         <v>101860.07867</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>154593.52878</v>
+        <v>154857.12784</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>192665.71125</v>
+        <v>195325.21599</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>306698.3572</v>
+        <v>310148.77497</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>280673.1877</v>
+        <v>301752.02316</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>391482.46251</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>512664.3693000001</v>
+        <v>512972.2718</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>658143.6194600001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>679019.3965499999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1138198.27</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>17129.88183</v>
@@ -1052,19 +968,24 @@
         <v>30635.07023</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>58110.63168999999</v>
+        <v>58110.63169</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>48733.36154</v>
+        <v>49076.49434</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>67102.2069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>67033.18971000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>136365.495</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2470.35717</v>
@@ -1076,19 +997,19 @@
         <v>2412.6244</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4617.46449</v>
+        <v>4617.93596</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>8473.444009999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7355.415069999999</v>
+        <v>7383.279320000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>17173.24873</v>
+        <v>17193.86019</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>18127.05418</v>
+        <v>19011.7619</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>27166.02251</v>
@@ -1097,13 +1018,18 @@
         <v>33953.30481</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>42398.38014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>42629.026</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>44281.514</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>300.03545</v>
@@ -1127,7 +1053,7 @@
         <v>5138.94354</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4257.80805</v>
+        <v>5334.969160000001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>3795.59193</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>16986.0477</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>26464.65</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>106.99529</v>
@@ -1157,7 +1088,7 @@
         <v>1005.38835</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5009.282380000001</v>
+        <v>5009.28238</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>994.1343300000001</v>
@@ -1166,7 +1097,7 @@
         <v>681.8351899999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1070.90301</v>
+        <v>1864.05801</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1735.53877</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>9532.79716</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>16743.09</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>123.00437</v>
@@ -1193,7 +1129,7 @@
         <v>605.76887</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>854.9047599999999</v>
+        <v>854.90476</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1803.72822</v>
@@ -1205,7 +1141,7 @@
         <v>4048.29686</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1970.81844</v>
+        <v>2254.82455</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2024.47998</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>7396.34321</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>9215.532999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>70.03579000000001</v>
+        <v>70.03578999999999</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>36.1432</v>
@@ -1232,7 +1173,7 @@
         <v>88.45116</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>693.1087199999999</v>
+        <v>693.1087200000001</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>483.40253</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>56.90733</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>506.027</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>79985.74056999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>75388.41950999999</v>
+        <v>75388.41951000001</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>123679.71484</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>120543.79373</v>
+        <v>120544.2652</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>179830.13321</v>
+        <v>180093.73227</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>204171.44109</v>
+        <v>206858.81008</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>337232.9685900001</v>
+        <v>340703.99782</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>325177.50406</v>
+        <v>346063.88613</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>472963.52478</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>583689.5045599999</v>
+        <v>584340.53986</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>750658.1588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>771695.56456</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1292380.629</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>62377.48253</v>
@@ -1307,37 +1258,42 @@
         <v>57853.91453</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>97907.27044999998</v>
+        <v>97907.27045</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>97895.40476</v>
+        <v>97895.40475999999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>150377.50545</v>
+        <v>150512.03961</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>162198.61574</v>
+        <v>163817.73191</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>276967.3357000001</v>
+        <v>278963.0284600001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>278869.83043</v>
+        <v>294934.4009600001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>392578.25287</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>482428.83616</v>
+        <v>483047.3981</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>608173.0169200001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>626498.72262</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1117695.765</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>23803.39573</v>
@@ -1352,16 +1308,16 @@
         <v>53414.38333</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>84871.74160000001</v>
+        <v>85006.27575999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>81596.25187000001</v>
+        <v>83206.06804</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>141547.09195</v>
+        <v>143356.23227</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>156498.54119</v>
+        <v>171733.94059</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>194277.00727</v>
@@ -1370,13 +1326,18 @@
         <v>213019.47954</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>336953.0887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>339334.78202</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>556814.376</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>27240.66326</v>
@@ -1385,7 +1346,7 @@
         <v>22957.29684</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>52433.49319</v>
+        <v>52433.49319000001</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>29216.71363</v>
@@ -1400,22 +1361,27 @@
         <v>111889.00113</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>99281.93937000001</v>
+        <v>100111.1105</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>162717.89724</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>227269.72955</v>
+        <v>227883.06267</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>225042.44367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>240629.29851</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>475999.872</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>11284.19448</v>
@@ -1433,10 +1399,10 @@
         <v>13032.23475</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>15031.60249</v>
+        <v>15040.90249</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>20869.93698</v>
+        <v>21056.48942</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>21840.58646</v>
@@ -1445,16 +1411,21 @@
         <v>27254.59958</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>39720.15512999999</v>
+        <v>39725.38395</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>43030.07023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>43387.22777</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>79864.933</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>49.22906</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>3147.41432</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>5016.584</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>17608.25804</v>
@@ -1505,34 +1481,39 @@
         <v>25772.44439</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>22648.38897</v>
+        <v>22648.86044</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>29452.62776</v>
+        <v>29581.69266</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>41972.82534999999</v>
+        <v>43041.07817</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>60265.63289</v>
+        <v>61740.96936</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>46307.67363</v>
+        <v>51129.48517</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>80385.27191</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>101260.6684</v>
+        <v>101293.14176</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>142485.14188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>145196.84194</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>174684.864</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>19729.59502</v>
@@ -1544,34 +1525,39 @@
         <v>19180.11427</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>22790.26398</v>
+        <v>22876.65012</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>34479.57498999999</v>
+        <v>34567.59136</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>39540.04129</v>
+        <v>40275.93445</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>63107.44861</v>
+        <v>64102.39861</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>74964.21867999999</v>
+        <v>76164.31129</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>89837.04873000001</v>
+        <v>89837.04872999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>115784.9944</v>
+        <v>115844.86921</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>147738.83381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>150276.14802</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>193542.363</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>596.8848</v>
@@ -1592,7 +1578,7 @@
         <v>169.03579</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5.34271</v>
+        <v>235.45271</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>544.70054</v>
@@ -1604,16 +1590,21 @@
         <v>666.84147</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>835.9166399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>835.91664</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>947.625</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7313.752950000001</v>
+        <v>7313.75295</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>5790.24813</v>
@@ -1622,16 +1613,16 @@
         <v>2818.29067</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4337.62253</v>
+        <v>4337.622530000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4740.58172</v>
+        <v>4761.65306</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4404.1543</v>
+        <v>4404.154300000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9688.868269999999</v>
+        <v>9757.108189999999</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>14965.70845</v>
@@ -1643,13 +1634,18 @@
         <v>20011.33211</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>32145.15494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>32528.81428</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>41106.519</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>11818.95727</v>
@@ -1661,73 +1657,83 @@
         <v>15795.31489</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>18204.17527</v>
+        <v>18290.56141</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>29462.70482</v>
+        <v>29529.64985</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>34966.8512</v>
+        <v>35702.74436</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>53413.23763</v>
+        <v>54109.83770999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>59453.80969</v>
+        <v>60653.90229999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>74793.50827999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>95106.82081999999</v>
+        <v>95166.69563</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>114757.76223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>116911.4171</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>151488.219</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-2121.33698</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-199.33043</v>
+        <v>-199.3304299999997</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>6592.330120000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-141.8750099999998</v>
+        <v>-227.7896799999992</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-5026.94723</v>
+        <v>-4985.8987</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2432.784059999999</v>
+        <v>2765.14372</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-2841.815719999999</v>
+        <v>-2361.42925</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-28656.54505</v>
+        <v>-25034.82612</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-9451.776820000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-14524.326</v>
+        <v>-14551.72745</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-5253.69193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-5079.306080000002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-18857.499</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>7238.62117</v>
@@ -1745,28 +1751,33 @@
         <v>13735.14296</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>22671.3396</v>
+        <v>22761.97968</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>30538.35543</v>
+        <v>30558.02743</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>41989.88324</v>
+        <v>42647.88434</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>46494.44348</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>76534.12697</v>
+        <v>76534.26424999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>184333.1022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>184343.82605</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>115442.039</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2048.72271</v>
@@ -1781,7 +1792,7 @@
         <v>4831.23128</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4992.70744</v>
+        <v>4992.707439999999</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>11774.42092</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>138533.8213</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>28495.786</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>699.0148799999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>11195.477</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1072.23099</v>
@@ -1862,13 +1883,13 @@
         <v>1839.40823</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2149.72318</v>
+        <v>2151.19624</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3268.60007</v>
+        <v>3270.762560000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4144.43901</v>
+        <v>4149.93867</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>6341.96793</v>
@@ -1877,13 +1898,18 @@
         <v>16453.84119</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15414.19197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>15416.04489</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9175.157999999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1946.54153</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2547.981</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0.09526000000000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>184.99684</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>47.34166</v>
@@ -1979,7 +2015,7 @@
         <v>73.39870999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>57.45941</v>
+        <v>64.82707000000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>1827.39576</v>
@@ -1988,19 +2024,24 @@
         <v>800.33253</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>964.414</v>
+        <v>964.4139999999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2071.9824</v>
+        <v>2072.11968</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5091.86791</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5092.080660000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11007.464</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2795.02207</v>
@@ -2024,7 +2065,7 @@
         <v>5066.45615</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14074.48344</v>
+        <v>14144.41713</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>11588.73292</v>
@@ -2033,13 +2074,18 @@
         <v>30943.18216</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>14476.25143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14481.39456</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>41971.942</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1.02674</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.59229</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1273.58945</v>
@@ -2126,7 +2182,7 @@
         <v>1692.36098</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2737.842979999999</v>
+        <v>2737.84298</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>2635.79228</v>
@@ -2135,52 +2191,57 @@
         <v>4399.79658</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6531.26291</v>
+        <v>6613.062269999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8287.993549999999</v>
+        <v>8305.503060000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9364.329379999999</v>
+        <v>9946.897129999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>12215.76894</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8321.710009999999</v>
+        <v>8321.710010000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7986.41634</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7989.931390000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>11039.511</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6247.13902</v>
+        <v>6247.139020000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>1833.23729</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8841.250709999998</v>
+        <v>8841.25071</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>2775.11876</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7263.20959</v>
+        <v>7263.209589999999</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>3823.39623</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15993.0936</v>
+        <v>16018.32097</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>20575.87896</v>
+        <v>21183.91379</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>22102.36687</v>
@@ -2189,13 +2250,18 @@
         <v>41216.26723</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>26461.33865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>26466.85482</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>40881.366</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>15.6255</v>
@@ -2219,7 +2285,7 @@
         <v>24.60546</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>57.22990000000001</v>
+        <v>57.2299</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>167.30136</v>
@@ -2228,13 +2294,18 @@
         <v>196.73469</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>439.3534</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>441.8109499999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>641.49</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2249,13 +2320,13 @@
         <v>252.65188</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>437.88107</v>
+        <v>437.8810700000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>318.0240899999999</v>
+        <v>318.02409</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4187.950309999999</v>
+        <v>4187.95031</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>1374.24788</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1524.47708</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4067.411</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>17.09929</v>
@@ -2303,16 +2379,21 @@
         <v>823.75416</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>806.6391399999999</v>
+        <v>806.63914</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>3201.86474</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2071.983</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>6160.80767</v>
@@ -2327,16 +2408,16 @@
         <v>2167.20156</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6207.235570000001</v>
+        <v>6207.235569999999</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>2300.65752</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9013.71898</v>
+        <v>9038.94635</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>17878.64047</v>
+        <v>17951.62891</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>19070.84357</v>
@@ -2345,13 +2426,18 @@
         <v>38725.13097</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>19302.58028</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>19305.6389</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>31781.617</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>5.078060000000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0.47597</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>48.5285</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>43.37864999999999</v>
+        <v>43.37865</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>480.32454</v>
@@ -2453,7 +2549,7 @@
         <v>1743.12311</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>346.66253</v>
+        <v>881.7089199999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>320.64742</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>1992.58718</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>2318.865</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>4805.61145</v>
@@ -2480,34 +2581,39 @@
         <v>3497.85912</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4098.009410000001</v>
+        <v>4098.0849</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7701.366679999999</v>
+        <v>7701.45456</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>10032.62507</v>
+        <v>10159.10753</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16742.37876</v>
+        <v>17399.11512</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19847.2313</v>
+        <v>21793.36522</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>26782.1442</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>34369.12134000001</v>
+        <v>34369.22734</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>42946.9643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>44102.80919</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>55149.413</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>3497.33687</v>
@@ -2519,34 +2625,39 @@
         <v>1280.75585</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2408.091559999999</v>
+        <v>2408.16705</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5988.341369999999</v>
+        <v>5988.42925</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8923.80048</v>
+        <v>9050.282940000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>13018.00995</v>
+        <v>13674.74631</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>19164.64221</v>
+        <v>21110.77613</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>25516.18107</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>31416.12465</v>
+        <v>31416.23065</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>36928.95225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>38084.79714</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>50238.291</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1308.27458</v>
@@ -2567,7 +2678,7 @@
         <v>1108.82459</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3724.36881</v>
+        <v>3724.368809999999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>682.5890899999999</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>6018.012049999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4911.122</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-5935.46628</v>
+        <v>-5935.466280000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6236.178969999999</v>
+        <v>6236.17897</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>4338.07414</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>8143.88686</v>
+        <v>8057.8967</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-6256.38054</v>
+        <v>-6215.419890000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>11248.10236</v>
+        <v>11544.61964</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-5038.932650000001</v>
+        <v>-5220.83791</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-27089.77207</v>
+        <v>-25364.22079</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-11841.84441</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-13575.5876</v>
+        <v>-13602.95777</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>109671.10732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>108694.85596</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>553.761</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3184.03505</v>
@@ -2636,34 +2757,39 @@
         <v>3148.58114</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6059.379329999999</v>
+        <v>6065.87558</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7206.67521</v>
+        <v>7215.91575</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6622.620630000001</v>
+        <v>6648.345609999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12784.47543</v>
+        <v>12800.47801</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>14724.70517</v>
+        <v>14975.08675</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>26072.70025</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>24585.89244</v>
+        <v>24585.89994</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>24842.41882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>25417.49528</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>76837.575</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>25.64357</v>
@@ -2693,16 +2819,21 @@
         <v>30.37887</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>36.84227</v>
+        <v>36.84227000000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>185.29749</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>114.33</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>3158.39148</v>
@@ -2714,34 +2845,39 @@
         <v>3046.67755</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5955.89052</v>
+        <v>5962.38677</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7197.652160000001</v>
+        <v>7206.892699999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6607.98805</v>
+        <v>6633.713029999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>12295.70114</v>
+        <v>12311.70372</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>14528.88244</v>
+        <v>14779.26402</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>26042.32138</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>24549.05017</v>
+        <v>24549.05767</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>24657.12133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>25232.19779</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>76723.245</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5097.44069</v>
@@ -2753,37 +2889,42 @@
         <v>9465.30774</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2025.34185</v>
+        <v>2046.05024</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10847.82708</v>
+        <v>10862.99325</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>22487.25108</v>
+        <v>22487.37217</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18295.44802</v>
+        <v>18304.55619</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>15988.58373</v>
+        <v>16126.6902</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>10895.41489</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>19527.15263</v>
+        <v>19527.98263</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>12323.60705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12454.03979</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>43061.311</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>42.93836999999999</v>
+        <v>42.93837000000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>4.485</v>
@@ -2798,7 +2939,7 @@
         <v>895.71801</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>881.4691399999999</v>
+        <v>881.46914</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>824.6983299999999</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>450.94135</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>3937.927</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>19.29347</v>
@@ -2854,53 +3000,63 @@
       <c r="M53" s="48" t="n">
         <v>463.34789</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1200.871</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5035.20885</v>
+        <v>5035.208850000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>991.44015</v>
+        <v>991.4401500000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9250.280279999999</v>
+        <v>9250.280280000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1873.55152</v>
+        <v>1894.25991</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9886.92416</v>
+        <v>9902.090330000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>19039.1592</v>
+        <v>19039.28029</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17135.5345</v>
+        <v>17144.64267</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>14027.16115</v>
+        <v>14165.26762</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>9625.00799</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>19301.05493</v>
+        <v>19301.88493</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11409.31781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11539.75055</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>37922.513</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-7848.87192</v>
+        <v>-7848.871920000001</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>6493.864189999999</v>
@@ -2909,34 +3065,39 @@
         <v>-1978.65246</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12177.92434</v>
+        <v>12077.72204</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-9897.53241</v>
+        <v>-9862.49739</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-4616.52809</v>
+        <v>-4294.40692</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-10549.90524</v>
+        <v>-10724.91609</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-28353.65063</v>
+        <v>-26515.82424</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3335.440950000002</v>
+        <v>3335.44095</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-8516.84779</v>
+        <v>-8545.04046</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>122189.91909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>121658.31145</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>34330.025</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>578.48213</v>
@@ -2951,16 +3112,16 @@
         <v>1907.6731</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2572.50812</v>
+        <v>2591.19713</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4002.58135</v>
+        <v>4025.63685</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3586.68891</v>
+        <v>3594.54791</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2984.8454</v>
+        <v>3329.028139999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>4559.6808</v>
@@ -2969,13 +3130,18 @@
         <v>6048.90277</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9249.984030000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9255.105960000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>16907.755</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-8427.354049999998</v>
@@ -2987,31 +3153,34 @@
         <v>-3874.617509999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>10270.25124</v>
+        <v>10170.04894</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-12470.04053</v>
+        <v>-12453.69452</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-8619.10944</v>
+        <v>-8320.043770000002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-14136.59415</v>
+        <v>-14319.464</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-31338.49603</v>
+        <v>-29844.85238</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-1224.23985</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-14565.75056</v>
+        <v>-14593.94323</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>112939.93506</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>112403.20549</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>17422.27</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>213</v>
@@ -3041,31 +3213,34 @@
         <v>183</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>576</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>796</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>